--- a/testData/accapproval_test_data.xlsx
+++ b/testData/accapproval_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="add_access_approvel" sheetId="3" r:id="rId1"/>
@@ -13,13 +13,18 @@
     <sheet name="agree_approvel" sheetId="5" r:id="rId4"/>
     <sheet name="urgent_approvel" sheetId="8" r:id="rId5"/>
     <sheet name="agree_urgent" sheetId="9" r:id="rId6"/>
+    <sheet name="process_task" sheetId="10" r:id="rId7"/>
+    <sheet name="apply_history" sheetId="11" r:id="rId8"/>
+    <sheet name="personal_history" sheetId="12" r:id="rId9"/>
+    <sheet name="all_history" sheetId="13" r:id="rId10"/>
+    <sheet name="department_history" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="95">
   <si>
     <t>测试点说明0</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -269,6 +274,173 @@
     <t>紧急审批每一级的审批人只需一人通过，审批通过</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>审批状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属部门</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标IP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  月</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>待办</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已办</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.240</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程任务查询已办流程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程任务查询待办流程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>未通过</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请历史查询已通过流程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请历史查询未通过流程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a 1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人历史查询未通过流程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人历史查询已通过流程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部历史查询未通过流程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部历史查询已通过流程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门历史查询未通过流程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门历史查询已通过流程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -435,7 +607,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -498,6 +670,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17231,6 +17409,270 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75">
+      <c r="A1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="3">
+        <v>240</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="14">
+        <v>2017</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="23.25" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75">
+      <c r="A1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="3">
+        <v>240</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="14">
+        <v>2017</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K2"/>
@@ -17581,8 +18023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17666,4 +18108,380 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="11.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18.75">
+      <c r="A1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="3">
+        <v>150</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>240</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2017</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="3">
+        <v>15029</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="3">
+        <v>2017</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.75">
+      <c r="A1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="3">
+        <v>240</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2017</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2017</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75">
+      <c r="A1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="3">
+        <v>240</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/accapproval_test_data.xlsx
+++ b/testData/accapproval_test_data.xlsx
@@ -24,27 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="95">
-  <si>
-    <t>测试点说明0</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权名称2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批级别3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名称/账号4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="108">
   <si>
     <t>添加一级访问审批</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -55,10 +35,6 @@
   </si>
   <si>
     <t>流程测试</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批人个数5</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -83,58 +59,6 @@
   </si>
   <si>
     <t xml:space="preserve">2 a 1 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试点说明0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源名称1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源账号名称2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问审批/紧急运维3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>start是否设置时间4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>type5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>end是否设置时间7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>type8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>同意或拒绝2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述3</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -168,14 +92,6 @@
   <si>
     <t xml:space="preserve">2 sp1 1 </t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试点说明0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户登录1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>no</t>
@@ -441,6 +357,139 @@
     <t>部门历史查询已通过流程</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>测试点说明</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批级别</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名称/账号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批人个数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点说明</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源账号名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问审批/紧急运维</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>start是否设置时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>end是否设置时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>同意或拒绝</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F09_S33_search_011</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S04_accessApproval_add_001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S04_accessApproval_add_001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F12_S29_accessApproval_002</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F09_S23_Approval_deny_003</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F09_S23_accessApproval_accept_004</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F09_S23_accessApproval_accept_005</t>
+  </si>
+  <si>
+    <t>test_F09_S23_accessApproval_accept_006</t>
+  </si>
+  <si>
+    <t>test_F09_S23_accessApproval_accept_007</t>
+  </si>
+  <si>
+    <t>test_F12_S29_urgentOperate_005</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F09_S23_urgentOperate_accept_006</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F09_S23_search_007</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F09_S24_search_008</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F09_S25_search_009</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F09_S32_search_010</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F09_S33_search_011</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -607,7 +656,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -676,6 +725,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -974,74 +1032,83 @@
   <dimension ref="A1:XED4"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="24.625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="17.625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="20" style="9" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="9" customWidth="1"/>
     <col min="3" max="3" width="11.625" style="10" customWidth="1"/>
     <col min="4" max="4" width="10.75" style="10" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="9" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="10"/>
+    <col min="5" max="5" width="19.125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="39.125" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16358" s="5" customFormat="1" ht="18.75">
       <c r="A1" s="13" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>8</v>
+        <v>79</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:16358">
       <c r="A2" s="14" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:16358">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
+      <c r="E3" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="F3" s="3">
         <v>2</v>
       </c>
-      <c r="G3"/>
+      <c r="G3" s="14" t="s">
+        <v>94</v>
+      </c>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
@@ -17411,77 +17478,85 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="16.75" customWidth="1"/>
+    <col min="8" max="8" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:13" ht="18.75">
       <c r="A1" s="21" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="14.25">
+      <c r="A2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="21" t="s">
+      <c r="D2" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>88</v>
-      </c>
       <c r="E2" s="14" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="H2" s="3">
         <v>240</v>
@@ -17490,37 +17565,40 @@
         <v>1</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13" ht="14.25">
       <c r="A3" s="14" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="14" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -17529,10 +17607,13 @@
         <v>2017</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -17543,77 +17624,85 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.25" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="9" max="9" width="15.25" customWidth="1"/>
+    <col min="13" max="13" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:13" ht="18.75">
       <c r="A1" s="21" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="14.25">
+      <c r="A2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="21" t="s">
+      <c r="D2" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>88</v>
-      </c>
       <c r="E2" s="14" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="H2" s="3">
         <v>240</v>
@@ -17622,37 +17711,40 @@
         <v>1</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13" ht="14.25">
       <c r="A3" s="14" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="14" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -17661,10 +17753,13 @@
         <v>2017</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -17675,10 +17770,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17693,53 +17788,56 @@
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="23.125" customWidth="1"/>
     <col min="11" max="11" width="19.5" customWidth="1"/>
-    <col min="12" max="12" width="20.875" customWidth="1"/>
+    <col min="12" max="12" width="36.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="2" t="s">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="18.75">
+      <c r="A1" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="14.25">
+      <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="8" customFormat="1" ht="14.25">
-      <c r="A2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
@@ -17748,20 +17846,23 @@
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7">
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J2" s="15">
         <v>43015.487986111111</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -17773,10 +17874,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17785,76 +17886,92 @@
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="21.875" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="17" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>27</v>
+        <v>90</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25">
+    <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="7" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2" s="20">
         <v>2</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>56</v>
+        <v>35</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.25">
+    <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="7" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C3" s="20">
         <v>2</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>57</v>
+        <v>36</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.25">
+    <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="7" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.25">
+    <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="7" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -17865,10 +17982,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17876,76 +17993,92 @@
     <col min="1" max="1" width="66.125" customWidth="1"/>
     <col min="2" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="41.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="18.75">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="18.75">
       <c r="A1" s="17" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>27</v>
+        <v>90</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25">
+    <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2" s="20">
         <v>1</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>30</v>
+        <v>11</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.25">
+    <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.25">
+    <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="7" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C4" s="16">
         <v>1</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.25">
+    <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="7" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C5" s="16">
         <v>1</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>31</v>
+        <v>12</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -17956,60 +18089,66 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="32.25" customWidth="1"/>
+    <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="23.75" customWidth="1"/>
     <col min="5" max="5" width="30.625" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="20.875" customWidth="1"/>
+    <col min="7" max="7" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="18.75">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="8" customFormat="1" ht="14.25">
+      <c r="A2" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" ht="14.25">
-      <c r="A2" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="B2" s="7" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D2" s="7">
         <v>2</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>50</v>
+        <v>29</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -18021,87 +18160,103 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="66.125" customWidth="1"/>
+    <col min="1" max="1" width="68.25" customWidth="1"/>
     <col min="2" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="39.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="18.75">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="18.75">
       <c r="A1" s="17" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>27</v>
+        <v>90</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25">
+    <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="7" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2" s="20">
         <v>1</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>60</v>
+        <v>39</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.25">
+    <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.25">
+    <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="7" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C4" s="16">
         <v>1</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>61</v>
+        <v>40</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.25">
+    <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="7" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -18112,10 +18267,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18128,58 +18283,62 @@
     <col min="7" max="7" width="11.375" customWidth="1"/>
     <col min="8" max="8" width="14.75" customWidth="1"/>
     <col min="9" max="9" width="11.25" customWidth="1"/>
+    <col min="12" max="12" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="21" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>71</v>
+        <v>50</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="F2" s="3">
         <v>150</v>
@@ -18194,25 +18353,28 @@
         <v>2017</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3">
         <v>15029</v>
@@ -18221,16 +18383,19 @@
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="I3" s="3">
         <v>2017</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -18242,103 +18407,115 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="10" max="10" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75">
+    <row r="1" spans="1:10" ht="18.75">
       <c r="A1" s="21" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.25">
+      <c r="A2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>84</v>
-      </c>
       <c r="C2" s="14" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D2" s="3">
         <v>240</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="3">
+        <v>61</v>
+      </c>
+      <c r="F2" s="25">
         <v>1</v>
       </c>
       <c r="G2" s="3">
         <v>2017</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10" ht="14.25">
       <c r="A3" s="14" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="3">
+        <v>14</v>
+      </c>
+      <c r="F3" s="25">
         <v>1</v>
       </c>
       <c r="G3" s="3">
         <v>2017</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -18349,10 +18526,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18366,67 +18543,71 @@
     <col min="7" max="7" width="9.5" customWidth="1"/>
     <col min="8" max="8" width="14.875" customWidth="1"/>
     <col min="9" max="9" width="11.75" customWidth="1"/>
+    <col min="13" max="13" width="28.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:13" ht="18.75">
       <c r="A1" s="21" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="14.25">
+      <c r="A2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="21" t="s">
+      <c r="D2" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>88</v>
-      </c>
       <c r="E2" s="14" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="H2" s="3">
         <v>240</v>
@@ -18435,49 +18616,55 @@
         <v>1</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13" ht="14.25">
       <c r="A3" s="14" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="14" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/testData/accapproval_test_data.xlsx
+++ b/testData/accapproval_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="add_access_approvel" sheetId="3" r:id="rId1"/>
@@ -17480,8 +17480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17604,7 +17604,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="14">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>14</v>
@@ -17627,7 +17627,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17750,7 +17750,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="14">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>14</v>
@@ -17772,8 +17772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17856,7 +17856,7 @@
         <v>6</v>
       </c>
       <c r="J2" s="15">
-        <v>43015.487986111111</v>
+        <v>55799.487986111111</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>7</v>
@@ -18163,7 +18163,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18270,7 +18270,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18350,7 +18350,7 @@
         <v>240</v>
       </c>
       <c r="I2" s="3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>59</v>
@@ -18386,7 +18386,7 @@
         <v>55</v>
       </c>
       <c r="I3" s="3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>14</v>
@@ -18410,7 +18410,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18474,7 +18474,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>59</v>
@@ -18506,7 +18506,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>14</v>

--- a/testData/accapproval_test_data.xlsx
+++ b/testData/accapproval_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="add_access_approvel" sheetId="3" r:id="rId1"/>
@@ -58,20 +58,12 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">2 a 1 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">2 test 1 </t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">2 d 1 </t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问审批同意a</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>访问审批同意d</t>
@@ -84,10 +76,6 @@
   <si>
     <t>no</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>a sp1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">2 sp1 1 </t>
@@ -103,10 +91,6 @@
   </si>
   <si>
     <t>用户xx发送访问审批成功</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户a同意访问审批</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -146,14 +130,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>a(a) sp1(sp1) test(test) d(d)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户a拒绝审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>用户sp1拒绝审批</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -166,19 +142,12 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>审批拒绝a</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>审批拒绝sp1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>用户test同意紧急审批</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户a同意紧急审批</t>
   </si>
   <si>
     <t>紧急审批同意a</t>
@@ -263,10 +232,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>n</t>
     </r>
@@ -297,23 +262,6 @@
   </si>
   <si>
     <t>申请历史查询未通过流程</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a 1</t>
-    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -488,6 +436,46 @@
   </si>
   <si>
     <t>test_F09_S33_search_011</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp2 sp1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2 sp2 1 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批拒绝sp2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问审批同意sp2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp2(sp2) sp1(sp1) test(test) d(d)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 sp2 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户sp2同意紧急审批</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户sp2同意访问审批</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户sp2拒绝审批</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1032,7 +1020,7 @@
   <dimension ref="A1:XED4"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1049,25 +1037,25 @@
   <sheetData>
     <row r="1" spans="1:16358" s="5" customFormat="1" ht="18.75">
       <c r="A1" s="13" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:16358">
@@ -1082,13 +1070,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:16358">
@@ -1107,7 +1095,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -17480,8 +17468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17497,66 +17485,66 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75">
       <c r="A1" s="21" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>50</v>
-      </c>
       <c r="M1" s="17" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="14.25">
       <c r="A2" s="14" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H2" s="3">
         <v>240</v>
@@ -17565,40 +17553,40 @@
         <v>1</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="14.25">
       <c r="A3" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -17607,13 +17595,13 @@
         <v>2018</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -17626,8 +17614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17643,66 +17631,66 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75">
       <c r="A1" s="21" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>50</v>
-      </c>
       <c r="M1" s="17" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="14.25">
       <c r="A2" s="14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H2" s="3">
         <v>240</v>
@@ -17711,40 +17699,40 @@
         <v>1</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="14.25">
       <c r="A3" s="14" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -17753,13 +17741,13 @@
         <v>2018</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -17793,51 +17781,51 @@
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" ht="18.75">
       <c r="A1" s="24" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="14.25">
       <c r="A2" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
@@ -17862,7 +17850,7 @@
         <v>7</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -17876,8 +17864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17891,87 +17879,87 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>91</v>
-      </c>
       <c r="D1" s="17" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="7" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="C2" s="20">
         <v>2</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" s="20">
         <v>2</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -17985,7 +17973,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17998,87 +17986,87 @@
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" ht="18.75">
       <c r="A1" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>91</v>
-      </c>
       <c r="D1" s="17" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="C2" s="20">
         <v>1</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="16">
         <v>1</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="16">
         <v>1</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -18092,7 +18080,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18100,55 +18088,55 @@
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="23.75" customWidth="1"/>
-    <col min="5" max="5" width="30.625" customWidth="1"/>
+    <col min="5" max="5" width="34.375" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
     <col min="7" max="7" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" ht="14.25">
       <c r="A2" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D2" s="7">
         <v>2</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -18163,7 +18151,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18176,87 +18164,87 @@
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" ht="18.75">
       <c r="A1" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>91</v>
-      </c>
       <c r="D1" s="17" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="7" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="C2" s="20">
         <v>1</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="16">
         <v>1</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -18270,7 +18258,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18288,57 +18276,57 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="21" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>50</v>
-      </c>
       <c r="L1" s="17" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3">
         <v>150</v>
@@ -18353,28 +18341,28 @@
         <v>2018</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" s="3">
         <v>15029</v>
@@ -18383,19 +18371,19 @@
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I3" s="3">
         <v>2018</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -18410,7 +18398,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18424,51 +18412,51 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
       <c r="A1" s="21" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>50</v>
-      </c>
       <c r="J1" s="17" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.25">
       <c r="A2" s="14" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="D2" s="3">
         <v>240</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F2" s="25">
         <v>1</v>
@@ -18477,30 +18465,30 @@
         <v>2018</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.25">
       <c r="A3" s="14" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" s="25">
         <v>1</v>
@@ -18509,13 +18497,13 @@
         <v>2018</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -18528,8 +18516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18548,66 +18536,66 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75">
       <c r="A1" s="21" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>50</v>
-      </c>
       <c r="M1" s="17" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="14.25">
       <c r="A2" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H2" s="3">
         <v>240</v>
@@ -18616,55 +18604,55 @@
         <v>1</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="14.25">
       <c r="A3" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/testData/accapproval_test_data.xlsx
+++ b/testData/accapproval_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="add_access_approvel" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="109">
   <si>
     <t>添加一级访问审批</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -36,14 +36,6 @@
   <si>
     <t>流程测试</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>test d</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>linux资源</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>t</t>
@@ -58,18 +50,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">2 test 1 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2 d 1 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问审批同意d</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>no</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -78,31 +58,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">2 sp1 1 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>no</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>访问审批同意test</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>用户xx发送访问审批成功</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为一级审批人只需一人审批通过所以用户sp1收到的审批消息状态为过期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户test同意访问审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户d同意访问审批</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -114,46 +74,12 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>windows</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Administrator</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>一级审批人</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>紧急运维</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户sp1拒绝审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级审批人拒绝审批所以test没有收到审批消息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级审批人拒绝审批所以d没有收到审批消息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批拒绝sp1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户test同意紧急审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>紧急审批同意a</t>
-  </si>
-  <si>
-    <t>紧急审批同意test</t>
   </si>
   <si>
     <t>紧急审批每一级的审批人只需一人通过，审批通过</t>
@@ -209,10 +135,6 @@
   </si>
   <si>
     <t>xx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.240</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -439,43 +361,127 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>sp2 sp1</t>
+    <t>cyyt cyyu</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">2 sp2 1 </t>
+    <t>cyyv cyyw</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyydebain</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>审批拒绝sp2</t>
+    <t xml:space="preserve">2 cyyt 1 </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>访问审批同意sp2</t>
+    <t xml:space="preserve">2 cyyu 1 </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户cyyt拒绝审批</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>sp2(sp2) sp1(sp1) test(test) d(d)</t>
+    <t>用户cyyu拒绝审批</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>sp2</t>
+    <t xml:space="preserve">2 cyyv 1 </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级审批人拒绝审批所以cyyv没有收到审批消息</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2 sp2 1</t>
+    <t>一级审批人拒绝审批所以cyyw没有收到审批消息</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>用户sp2同意紧急审批</t>
+    <t xml:space="preserve">2 cyyw 1 </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批拒绝cyyt</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>用户sp2同意访问审批</t>
+    <t>审批拒绝cyyu</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为一级审批人只需一人审批通过所以用户cyyu收到的审批消息状态为过期</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>用户sp2拒绝审批</t>
+    <t>用户cyyv同意访问审批</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户cyyw同意访问审批</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户cyyt同意访问审批</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问审批同意cyyt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问审批同意cyyv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问审批同意cyyw</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyt(cyyt) cyyu(cyyu) cyyv(cyyv) cyyw(cyyw)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急审批同意cyyt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急审批同意cyyv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户cyyv同意紧急审批</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户cyyt同意紧急审批</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cyyu 1 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.155</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 cyyu 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyu</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyydb</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1020,7 +1026,7 @@
   <dimension ref="A1:XED4"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1037,25 +1043,25 @@
   <sheetData>
     <row r="1" spans="1:16358" s="5" customFormat="1" ht="18.75">
       <c r="A1" s="13" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:16358">
@@ -1070,13 +1076,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:16358">
@@ -1089,13 +1095,13 @@
         <v>2</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="F3" s="3">
         <v>2</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -17469,7 +17475,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17485,108 +17491,108 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75">
       <c r="A1" s="21" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="14.25">
       <c r="A2" s="14" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="H2" s="3">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="I2" s="3">
         <v>1</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="14.25">
       <c r="A3" s="14" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="14" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -17595,13 +17601,13 @@
         <v>2018</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -17615,7 +17621,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17631,108 +17637,108 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75">
       <c r="A1" s="21" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="14.25">
       <c r="A2" s="14" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="H2" s="3">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="I2" s="3">
         <v>1</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="14.25">
       <c r="A3" s="14" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="14" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -17741,13 +17747,13 @@
         <v>2018</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -17761,7 +17767,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17781,51 +17787,51 @@
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" ht="18.75">
       <c r="A1" s="24" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="14.25">
       <c r="A2" s="6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
@@ -17834,23 +17840,23 @@
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7">
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J2" s="15">
         <v>55799.487986111111</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -17864,8 +17870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17879,87 +17885,87 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="17" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="7" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C2" s="20">
         <v>2</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="7" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="C3" s="20">
         <v>2</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="7" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="7" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -17973,12 +17979,12 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="66.125" customWidth="1"/>
+    <col min="1" max="1" width="68.375" customWidth="1"/>
     <col min="2" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="21.75" customWidth="1"/>
     <col min="5" max="5" width="41.25" customWidth="1"/>
@@ -17986,87 +17992,87 @@
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" ht="18.75">
       <c r="A1" s="17" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="7" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C2" s="20">
         <v>1</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="7" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="7" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="C4" s="16">
         <v>1</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="7" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="C5" s="16">
         <v>1</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -18079,8 +18085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18088,55 +18094,55 @@
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="23.75" customWidth="1"/>
-    <col min="5" max="5" width="34.375" customWidth="1"/>
+    <col min="5" max="5" width="45.125" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
     <col min="7" max="7" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" ht="14.25">
       <c r="A2" s="6" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D2" s="7">
         <v>2</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -18151,7 +18157,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18164,87 +18170,87 @@
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" ht="18.75">
       <c r="A1" s="17" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C2" s="20">
         <v>1</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="7" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="7" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="C4" s="16">
         <v>1</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="7" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -18276,57 +18282,57 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="21" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3">
         <v>150</v>
@@ -18335,34 +18341,34 @@
         <v>1</v>
       </c>
       <c r="H2" s="3">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="I2" s="3">
         <v>2018</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F3" s="3">
         <v>15029</v>
@@ -18371,19 +18377,19 @@
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="I3" s="3">
         <v>2018</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -18398,7 +18404,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18412,51 +18418,51 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
       <c r="A1" s="21" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.25">
       <c r="A2" s="14" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D2" s="3">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F2" s="25">
         <v>1</v>
@@ -18465,30 +18471,30 @@
         <v>2018</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.25">
       <c r="A3" s="14" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F3" s="25">
         <v>1</v>
@@ -18497,13 +18503,13 @@
         <v>2018</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -18517,7 +18523,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18536,123 +18542,123 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75">
       <c r="A1" s="21" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="14.25">
       <c r="A2" s="14" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="H2" s="3">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="I2" s="3">
         <v>1</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="14.25">
       <c r="A3" s="14" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="14" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
